--- a/DataTable/Common/ResourceDataTable.xlsx
+++ b/DataTable/Common/ResourceDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectD\DataTable\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1000Download\ProjectD\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1B062-0727-444D-8AFB-D8D0019E7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E09A927-1F15-4424-BF04-C3C17CDE0237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="8100" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3060" windowWidth="20925" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESOURCE" sheetId="4" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>RESOURCE_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +88,10 @@
   </si>
   <si>
     <t>RESOURCE_ENERGY_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;RESOURCE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +425,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -437,19 +437,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -457,16 +457,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -474,16 +474,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -491,16 +491,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
